--- a/outputs-r202/test-f__ARS1246.xlsx
+++ b/outputs-r202/test-f__ARS1246.xlsx
@@ -14,9 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Row</t>
+  </si>
+  <si>
+    <t>RUG007.fasta</t>
+  </si>
+  <si>
+    <t>RUG096.fasta</t>
+  </si>
+  <si>
+    <t>RUG148.fasta</t>
+  </si>
+  <si>
+    <t>RUG151.fasta</t>
+  </si>
+  <si>
+    <t>RUG263.fasta</t>
+  </si>
+  <si>
+    <t>RUG274.fasta</t>
   </si>
   <si>
     <t>RUG521.fasta</t>
@@ -97,7 +115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
@@ -110,10 +128,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -215,6 +233,72 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>